--- a/coeff_file.xlsx
+++ b/coeff_file.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KPI-master\Ising_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5200574-659B-4313-9CAB-8AD9795DF7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E36D4-A60D-4925-AE3C-89733D0D206C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{3AC10DE9-5A51-472C-A87E-0FD5024D0AD6}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3AC10DE9-5A51-472C-A87E-0FD5024D0AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="coeff" sheetId="1" r:id="rId1"/>
     <sheet name="sram" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -383,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA349E7-6A13-4EBE-8763-D0071CDCE0F5}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,17 +392,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -418,30 +414,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDEED7F-6D88-4FDF-A90F-291E2F614C34}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/coeff_file.xlsx
+++ b/coeff_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KPI-master\Ising_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E36D4-A60D-4925-AE3C-89733D0D206C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C83EB-D0B5-4F39-88B6-36ECFD1D74DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3AC10DE9-5A51-472C-A87E-0FD5024D0AD6}"/>
   </bookViews>
@@ -380,14 +380,14 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -397,12 +397,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -415,7 +415,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
